--- a/server/docs/EquipCfgExcel_com.wan37.config.entity.EquipCfgExcel.xlsx
+++ b/server/docs/EquipCfgExcel_com.wan37.config.entity.EquipCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC436679-23AC-4EFD-9E05-E28DDE8092E1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEF680-8EE2-4047-874F-3E1D37C56A46}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/server/docs/EquipCfgExcel_com.wan37.config.entity.EquipCfgExcel.xlsx
+++ b/server/docs/EquipCfgExcel_com.wan37.config.entity.EquipCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BEF680-8EE2-4047-874F-3E1D37C56A46}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D7BD35-C859-4E34-B7D8-AB0D327BDEC7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,17 +38,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3:50,6:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:3,1:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>部位：
 1：武器
-2：手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:50,6:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:3,1:10</t>
+2：手套
+3：帽子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +381,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -393,7 +394,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -412,7 +413,7 @@
         <v>30001</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -423,7 +424,7 @@
         <v>30002</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -434,7 +435,7 @@
         <v>30003</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -445,7 +446,7 @@
         <v>30004</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2</v>

--- a/server/docs/EquipCfgExcel_com.wan37.config.entity.EquipCfgExcel.xlsx
+++ b/server/docs/EquipCfgExcel_com.wan37.config.entity.EquipCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D7BD35-C859-4E34-B7D8-AB0D327BDEC7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2841C8-7437-4F6D-8E43-7CCCE1DC74EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
 1：武器
 2：手套
 3：帽子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:5,6:3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,7 +428,7 @@
         <v>30002</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>

--- a/server/docs/EquipCfgExcel_com.wan37.config.entity.EquipCfgExcel.xlsx
+++ b/server/docs/EquipCfgExcel_com.wan37.config.entity.EquipCfgExcel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2841C8-7437-4F6D-8E43-7CCCE1DC74EA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF0F2E2-8453-446D-BC62-5F0DC676CA7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,10 @@
   </si>
   <si>
     <t>3:5,6:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,6 +112,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -127,7 +199,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -382,18 +454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -401,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -411,8 +483,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30001</v>
       </c>
@@ -422,8 +497,11 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30002</v>
       </c>
@@ -433,8 +511,11 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30003</v>
       </c>
@@ -444,8 +525,11 @@
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30004</v>
       </c>
@@ -454,6 +538,9 @@
       </c>
       <c r="C6">
         <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/server/docs/EquipCfgExcel_com.wan37.config.entity.EquipCfgExcel.xlsx
+++ b/server/docs/EquipCfgExcel_com.wan37.config.entity.EquipCfgExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF0F2E2-8453-446D-BC62-5F0DC676CA7C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8328BD37-1437-43D2-85AB-F1092AD97BA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,19 +30,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:50,6:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:3,1:10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,11 +41,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3:5,6:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始属性
+属性值:基础值|步长|随机最大步长倍数,属性值:基础值|步长|随机最大步长倍数….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:50|1|10,6:3|1|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:3|1|3,1:10|1|3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品级（评分:名字,评分:名字..）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:灰,50:蓝,60:红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,26 +463,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:5" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -481,18 +494,21 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30001</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -500,13 +516,16 @@
       <c r="D3">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30002</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -514,13 +533,16 @@
       <c r="D4">
         <v>1</v>
       </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30003</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -528,19 +550,25 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30004</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
